--- a/Thesis/Resources/CGPerformance.xlsx
+++ b/Thesis/Resources/CGPerformance.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Memory" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Delta performance" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Laptop performance" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="GRID performance" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="137">
   <si>
     <t xml:space="preserve">3D Parallel 1000</t>
   </si>
@@ -356,7 +359,82 @@
     <t xml:space="preserve">Error</t>
   </si>
   <si>
+    <t xml:space="preserve">3D 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single</t>
+  </si>
+  <si>
     <t xml:space="preserve">mesured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D Square128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double precision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single precision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New distrib function, version 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New distrib function, version 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLUPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old distrib function, version 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New distrib function, version 3 (unrolled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old distrib function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New distrib function, version 3 (unrolled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final version, arch 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final version, high order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVERGENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final version, arch 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Cube64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Cube128</t>
   </si>
 </sst>
 </file>
@@ -366,11 +444,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -392,14 +471,28 @@
       <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -408,6 +501,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -625,7 +733,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,111 +742,127 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -808,317 +932,13 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF212121"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Color Gradient over 10000 iterations</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>22.1780798206029</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>19.4821440632257</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="36788571"/>
-        <c:axId val="65080269"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="36788571"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="65080269"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="65080269"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>MLUPs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36788571"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1235,6 +1055,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1243,6 +1064,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1251,6 +1073,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1259,6 +1082,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1267,12 +1091,14 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
             </c:dLbl>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1350,6 +1176,7 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1362,7 +1189,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1435,6 +1262,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1479,6 +1307,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1501,11 +1330,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="49416845"/>
-        <c:axId val="319794"/>
+        <c:axId val="58512202"/>
+        <c:axId val="39121084"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49416845"/>
+        <c:axId val="58512202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,14 +1378,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319794"/>
+        <c:crossAx val="39121084"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319794"/>
+        <c:axId val="39121084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1447,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1647,7 +1476,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49416845"/>
+        <c:crossAx val="58512202"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1684,7 +1513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1757,6 +1586,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1801,6 +1631,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1823,11 +1654,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="2573117"/>
-        <c:axId val="63109459"/>
+        <c:axId val="60212111"/>
+        <c:axId val="97322992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2573117"/>
+        <c:axId val="60212111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,14 +1693,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63109459"/>
+        <c:crossAx val="97322992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63109459"/>
+        <c:axId val="97322992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1753,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1951,7 +1782,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2573117"/>
+        <c:crossAx val="60212111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1988,7 +1819,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2038,10 +1869,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.194798699674919"/>
-          <c:y val="0.147013102376194"/>
-          <c:w val="0.532070517629407"/>
-          <c:h val="0.829669109482567"/>
+          <c:x val="0.194767932489451"/>
+          <c:y val="0.14704901633878"/>
+          <c:w val="0.531898734177215"/>
+          <c:h val="0.829276425475158"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -2116,6 +1947,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2124,6 +1956,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2132,6 +1965,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2140,6 +1974,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2148,12 +1983,14 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
             </c:dLbl>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2231,6 +2068,313 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Color Gradient over 10000 iterations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.1780798206029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.4821440632257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="24343379"/>
+        <c:axId val="78668940"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="24343379"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78668940"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78668940"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>MLUPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24343379"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2248,15 +2392,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>521640</xdr:colOff>
+      <xdr:colOff>524520</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>124560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>438480</xdr:colOff>
+      <xdr:colOff>437400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2264,8 +2408,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8494560" y="124560"/>
-        <a:ext cx="5838120" cy="3222360"/>
+        <a:off x="6915600" y="124560"/>
+        <a:ext cx="5389920" cy="3221280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2278,15 +2422,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>438480</xdr:colOff>
+      <xdr:colOff>441360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1227240</xdr:colOff>
+      <xdr:colOff>1226880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2294,8 +2438,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6785640" y="4876560"/>
-        <a:ext cx="4680000" cy="3240000"/>
+        <a:off x="5632200" y="4879440"/>
+        <a:ext cx="4138560" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2314,9 +2458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>338400</xdr:colOff>
+      <xdr:colOff>337320</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2324,8 +2468,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9552600" y="8376840"/>
-        <a:ext cx="4680000" cy="3240000"/>
+        <a:off x="7913160" y="8376840"/>
+        <a:ext cx="4292280" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2338,15 +2482,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>129960</xdr:colOff>
+      <xdr:colOff>132840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>198720</xdr:colOff>
+      <xdr:colOff>197640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2354,8 +2498,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14837040" y="277200"/>
-        <a:ext cx="5758200" cy="3241800"/>
+        <a:off x="12600720" y="280080"/>
+        <a:ext cx="4265640" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2374,9 +2518,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>690840</xdr:colOff>
+      <xdr:colOff>690480</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2384,8 +2528,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3983760" y="8319240"/>
-        <a:ext cx="4680000" cy="3240000"/>
+        <a:off x="3465720" y="8319240"/>
+        <a:ext cx="3615840" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2405,22 +2549,22 @@
   </sheetPr>
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O34" activeCellId="0" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1275510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.9795918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.219387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,15 +3343,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V54" activeCellId="0" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5178,24 +5326,67 @@
       <c r="Q50" s="27" t="s">
         <v>27</v>
       </c>
+      <c r="U50" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="V50" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="W50" s="28" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="G51" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="28" t="n">
+      <c r="G51" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="29" t="n">
         <f aca="false">I50+E51</f>
         <v>521.814270019531</v>
       </c>
-      <c r="N51" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="P51" s="28" t="n">
+      <c r="N51" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P51" s="29" t="n">
         <f aca="false">P50+E51</f>
         <v>533.615051269531</v>
+      </c>
+      <c r="U51" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <v>863</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U52" s="28"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U53" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="V53" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="W53" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U54" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <v>3209</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
@@ -5208,7 +5399,1935 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7040816326531"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <f aca="false">128*128</f>
+        <v>16384</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="F4" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="F5" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>17.33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B6/1000000</f>
+        <v>8.77557579003749</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">$A$3*$B$3/D6/1000000</f>
+        <v>8.18790604697651</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">$A$3*$B$3/G6/1000000</f>
+        <v>9.06194690265487</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I6/1000000</f>
+        <v>9.45412579342181</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="F8" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>17.860001</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>18.67</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B9/1000000</f>
+        <v>9.10728182323513</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">$A$3*$B$3/D9/1000000</f>
+        <v>9.03695532266961</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">$A$3*$B$3/G9/1000000</f>
+        <v>9.17357171480561</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I9/1000000</f>
+        <v>8.77557579003749</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.0612244897959"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <f aca="false">128*128</f>
+        <v>16384</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="H4" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="H5" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>20.38836</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>18.081086</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>12.156735</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>10.550231</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B6/1000000</f>
+        <v>8.03595777198362</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>17.926045</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I6/1000000</f>
+        <v>13.4773029106911</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>9.936819</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.008062</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.006028</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6.429288</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1.882581</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>21.001033</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.809068</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>11.087945</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1.009695</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B10/1000000</f>
+        <v>7.8015210013717</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.315806</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I10/1000000</f>
+        <v>14.7764080720097</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.291298</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3.876738</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>2.031182</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>4.176064</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3.928059</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>19.937009</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="H14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10.30279</v>
+      </c>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B14/1000000</f>
+        <v>8.21788263224439</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I14/1000000</f>
+        <v>15.9024885492182</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="H17" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>21.364202</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>11.187888</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B18/1000000</f>
+        <v>7.66890333652528</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I18/1000000</f>
+        <v>14.6444083101297</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="H21" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>18.386505</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="32" t="n">
+        <v>24.130116</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>10.115005</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>10.373061</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>18.24269</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>13.207736</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>9.971847</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>2.45075</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B22/1000000</f>
+        <v>8.91088328097156</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">$A$3*$B$3/D22/1000000</f>
+        <v>6.78985546526175</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I22/1000000</f>
+        <v>16.1977181425022</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">$A$3*$B$3/K22/1000000</f>
+        <v>15.7947591361894</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K76"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F82" activeCellId="0" sqref="F82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.1887755102041"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <f aca="false">128*128</f>
+        <v>16384</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="H4" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="H5" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>9.14</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9.47</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B6/1000000</f>
+        <v>16</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.014326</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="0" t="e">
+        <f aca="false">$A$3*$B$3/I6/1000000</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.009981</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1.51301</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1.193948</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.688278</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.646576</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.287723</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>9.96</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.289514</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.952167</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1.809679</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B11/1000000</f>
+        <v>14.8003613369467</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>4.443027</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I11/1000000</f>
+        <v>16.4497991967871</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>4.333459</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="28"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="H15" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B16/1000000</f>
+        <v>15.1004608294931</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I16/1000000</f>
+        <v>16.8213552361396</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>9.55</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B21/1000000</f>
+        <v>13.5854063018242</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I21/1000000</f>
+        <v>15.5151515151515</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="H25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>2.838665</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>2.259328</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B26/1000000</f>
+        <v>15.9688109161793</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">$A$3*$B$3/D26/1000000</f>
+        <v>15.2551210428305</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I26/1000000</f>
+        <v>16.5997973657548</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">$A$3*$B$3/K26/1000000</f>
+        <v>16.8041025641026</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="28"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <f aca="false">64*64*64</f>
+        <v>262144</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="H34" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="H35" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>50.279999</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>79.1</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>48.490002</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="0" t="e">
+        <f aca="false">$A$33*$B$33/B36/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.055832</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="0" t="e">
+        <f aca="false">$A$33*$B$33/I36/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0.052599</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>28.990219</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>11.452539</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>7.859793</v>
+      </c>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>4.704807</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="28"/>
+      <c r="C41" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1.781338</v>
+      </c>
+      <c r="H41" s="28"/>
+      <c r="J41" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>1.625322</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28"/>
+      <c r="C42" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>15.371088</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="J42" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>9.340991</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="28"/>
+      <c r="C43" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>16.571722</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="J43" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>14.906499</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">$A$33*$B$33/D36/1000000</f>
+        <v>31.3194743130227</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">$A$33*$B$33/K36/1000000</f>
+        <v>52.1368347680357</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="H46" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>48.540001</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>46.889999</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="0" t="e">
+        <f aca="false">$A$33*$B$33/B47/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="0" t="e">
+        <f aca="false">$A$33*$B$33/D47/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <f aca="false">$A$33*$B$33/I47/1000000</f>
+        <v>54.005767325798</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K49" s="0" t="e">
+        <f aca="false">$A$33*$B$33/K47/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="28"/>
+      <c r="H51" s="28"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="28"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <f aca="false">128*128*128</f>
+        <v>2097152</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="H55" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="H56" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="K56" s="30"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>469.29</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>265.040009</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>457.81</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>253.580002</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="0" t="e">
+        <f aca="false">$A$54*$B$54/B57/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.378547</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59" s="0" t="e">
+        <f aca="false">$A$33*$B$33/I57/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0.336721</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>171.481796</v>
+      </c>
+      <c r="J60" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>76.123222</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>62.200644</v>
+      </c>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>36.679489</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="28"/>
+      <c r="C62" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>6.354612</v>
+      </c>
+      <c r="H62" s="28"/>
+      <c r="J62" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>5.879762</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="28"/>
+      <c r="C63" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>110.044451</v>
+      </c>
+      <c r="H63" s="28"/>
+      <c r="J63" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>64.443375</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="28"/>
+      <c r="C64" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>69.055508</v>
+      </c>
+      <c r="H64" s="28"/>
+      <c r="J64" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>49.072239</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <f aca="false">$A$54*$B$54/D57/1000000</f>
+        <v>44.6877623644229</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <f aca="false">$A$54*$B$54/K57/1000000</f>
+        <v>79.1258651066526</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="30"/>
+      <c r="H67" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K67" s="30"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>473.89</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>257.029999</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>462.57</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>245.539993</v>
+      </c>
+      <c r="J69" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>0.379627</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="0" t="e">
+        <f aca="false">$A$54*$B$54/D68/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>0.315908</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K70" s="0" t="e">
+        <f aca="false">$A$54*$B$54/K68/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>176.84227</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>75.413963</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>62.168519</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>36.413788</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>6.460029</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>5.83298</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>109.94352</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>63.839321</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>68.804625</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>44.465824</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <f aca="false">$A$54*$B$54/B68/1000000</f>
+        <v>44.2539829918336</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <f aca="false">$A$54*$B$54/I68/1000000</f>
+        <v>81.5917211282408</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Thesis/Resources/CGPerformance.xlsx
+++ b/Thesis/Resources/CGPerformance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -444,12 +444,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -471,16 +470,10 @@
       <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -501,21 +494,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -742,111 +732,107 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -854,7 +840,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -862,7 +852,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1330,11 +1320,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="58512202"/>
-        <c:axId val="39121084"/>
+        <c:axId val="23272102"/>
+        <c:axId val="48244195"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58512202"/>
+        <c:axId val="23272102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,14 +1368,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39121084"/>
+        <c:crossAx val="48244195"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39121084"/>
+        <c:axId val="48244195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1466,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58512202"/>
+        <c:crossAx val="23272102"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1654,11 +1644,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="60212111"/>
-        <c:axId val="97322992"/>
+        <c:axId val="67113265"/>
+        <c:axId val="98918835"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60212111"/>
+        <c:axId val="67113265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,14 +1683,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97322992"/>
+        <c:crossAx val="98918835"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97322992"/>
+        <c:axId val="98918835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1772,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60212111"/>
+        <c:crossAx val="67113265"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1869,10 +1859,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.194767932489451"/>
-          <c:y val="0.14704901633878"/>
-          <c:w val="0.531898734177215"/>
-          <c:h val="0.829276425475158"/>
+          <c:x val="0.19471834004973"/>
+          <c:y val="0.147065362383281"/>
+          <c:w val="0.531852868044243"/>
+          <c:h val="0.829146287238773"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -2222,11 +2212,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="24343379"/>
-        <c:axId val="78668940"/>
+        <c:axId val="55359946"/>
+        <c:axId val="51244380"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24343379"/>
+        <c:axId val="55359946"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,14 +2251,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78668940"/>
+        <c:crossAx val="51244380"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78668940"/>
+        <c:axId val="51244380"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2340,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24343379"/>
+        <c:crossAx val="55359946"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2392,15 +2382,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>524520</xdr:colOff>
+      <xdr:colOff>525240</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>124560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>437400</xdr:colOff>
+      <xdr:colOff>437040</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2408,8 +2398,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6915600" y="124560"/>
-        <a:ext cx="5389920" cy="3221280"/>
+        <a:off x="6820920" y="124560"/>
+        <a:ext cx="5303160" cy="3220920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2424,13 +2414,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>441360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1226880</xdr:colOff>
+      <xdr:colOff>1227240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2438,8 +2428,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5632200" y="4879440"/>
-        <a:ext cx="4138560" cy="3236040"/>
+        <a:off x="5556240" y="4880160"/>
+        <a:ext cx="4081320" cy="3234960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2452,15 +2442,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>512280</xdr:colOff>
+      <xdr:colOff>513000</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>86400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>337320</xdr:colOff>
+      <xdr:colOff>336960</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2468,8 +2458,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7913160" y="8376840"/>
-        <a:ext cx="4292280" cy="3238920"/>
+        <a:off x="7799400" y="8376840"/>
+        <a:ext cx="4224600" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2482,15 +2472,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
+      <xdr:colOff>133560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:colOff>198000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2498,8 +2488,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12600720" y="280080"/>
-        <a:ext cx="4265640" cy="3238560"/>
+        <a:off x="12411000" y="280800"/>
+        <a:ext cx="4198320" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2512,15 +2502,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>28800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>690480</xdr:colOff>
+      <xdr:colOff>690840</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2528,8 +2518,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3465720" y="8319240"/>
-        <a:ext cx="3615840" cy="3238920"/>
+        <a:off x="3418560" y="8319240"/>
+        <a:ext cx="3567960" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2555,16 +2545,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,17 +3335,17 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V54" activeCellId="0" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.5204081632653"/>
-    <col collapsed="false" hidden="false" max="20" min="11" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="20" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5420,13 +5410,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,20 +5636,22 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,20 +6096,22 @@
   </sheetPr>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F82" activeCellId="0" sqref="F82"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Thesis/Resources/CGPerformance.xlsx
+++ b/Thesis/Resources/CGPerformance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="209">
   <si>
     <t xml:space="preserve">3D Parallel 1000</t>
   </si>
@@ -647,6 +647,12 @@
   <si>
     <t xml:space="preserve">High</t>
   </si>
+  <si>
+    <t xml:space="preserve">C.C Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.C Single</t>
+  </si>
 </sst>
 </file>
 
@@ -1169,7 +1175,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1420,2238 +1426,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.1 Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$14:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.937009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.1 Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$15:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.74</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.30279</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.2 Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$18:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>18.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.364202</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.2 Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$19:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>18.67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.187888</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="17250138"/>
-        <c:axId val="92027621"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="17250138"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92027621"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="92027621"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="17250138"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.1 Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$14:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.937009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.1 Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$15:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.74</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.30279</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$22:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.081086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$23:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.059999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.936819</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="70044882"/>
-        <c:axId val="30557018"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="70044882"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="30557018"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="30557018"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="70044882"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.1 Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$14:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.937009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.1 Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$15:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.74</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.30279</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$22:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.081086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$23:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.059999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.936819</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="34625982"/>
-        <c:axId val="20872933"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="34625982"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="20872933"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="20872933"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34625982"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$D$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$A$27:$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Collision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$27:$D$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.798748</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.412984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.794355</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.190001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.46027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$E$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$A$27:$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Collision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$E$27:$E$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9.47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.51301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.81</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.193948</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.74</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.838665</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.259328</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$F$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$A$27:$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Collision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$F$27:$F$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>17.926045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.429288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.936819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.882581</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.130116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.207736</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.373061</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.45075</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="71365441"/>
-        <c:axId val="90922919"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="71365441"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="90922919"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="90922919"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="71365441"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$F$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$A$27:$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Collision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$F$27:$F$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>17.926045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.429288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.936819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.882581</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.130116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.207736</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.373061</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.45075</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="53922631"/>
-        <c:axId val="60109106"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="53922631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="60109106"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="60109106"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="53922631"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3792,11 +1567,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="98188853"/>
-        <c:axId val="95855277"/>
+        <c:axId val="60193464"/>
+        <c:axId val="80881550"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98188853"/>
+        <c:axId val="60193464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3840,14 +1615,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95855277"/>
+        <c:crossAx val="80881550"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95855277"/>
+        <c:axId val="80881550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3938,7 +1713,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98188853"/>
+        <c:crossAx val="60193464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3975,7 +1750,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4116,11 +1891,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="1969785"/>
-        <c:axId val="68227684"/>
+        <c:axId val="25595594"/>
+        <c:axId val="71082858"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1969785"/>
+        <c:axId val="25595594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4155,14 +1930,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68227684"/>
+        <c:crossAx val="71082858"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68227684"/>
+        <c:axId val="71082858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +2019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1969785"/>
+        <c:crossAx val="25595594"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4281,7 +2056,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4543,7 +2318,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4684,11 +2459,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="89999346"/>
-        <c:axId val="2369909"/>
+        <c:axId val="33091302"/>
+        <c:axId val="77592140"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89999346"/>
+        <c:axId val="33091302"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4723,14 +2498,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2369909"/>
+        <c:crossAx val="77592140"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2369909"/>
+        <c:axId val="77592140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4812,7 +2587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89999346"/>
+        <c:crossAx val="33091302"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4849,7 +2624,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10899,11 +8674,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="22525905"/>
-        <c:axId val="9039865"/>
+        <c:axId val="51431623"/>
+        <c:axId val="49629490"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22525905"/>
+        <c:axId val="51431623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10938,14 +8713,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9039865"/>
+        <c:crossAx val="49629490"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9039865"/>
+        <c:axId val="49629490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10989,7 +8764,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22525905"/>
+        <c:crossAx val="51431623"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11026,7 +8801,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11099,11 +8874,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="24120530"/>
-        <c:axId val="83865995"/>
+        <c:axId val="84093400"/>
+        <c:axId val="19920453"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24120530"/>
+        <c:axId val="84093400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11176,14 +8951,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83865995"/>
+        <c:crossAx val="19920453"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83865995"/>
+        <c:axId val="19920453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11265,7 +9040,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24120530"/>
+        <c:crossAx val="84093400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11292,7 +9067,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11457,11 +9232,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="16603881"/>
-        <c:axId val="77013767"/>
+        <c:axId val="23844202"/>
+        <c:axId val="35123293"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16603881"/>
+        <c:axId val="23844202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11534,14 +9309,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77013767"/>
+        <c:crossAx val="35123293"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77013767"/>
+        <c:axId val="35123293"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11623,7 +9398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16603881"/>
+        <c:crossAx val="23844202"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11660,7 +9435,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11944,11 +9719,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="98995963"/>
-        <c:axId val="10333497"/>
+        <c:axId val="55713409"/>
+        <c:axId val="34134749"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98995963"/>
+        <c:axId val="55713409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11983,14 +9758,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10333497"/>
+        <c:crossAx val="34134749"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10333497"/>
+        <c:axId val="34134749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12072,7 +9847,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98995963"/>
+        <c:crossAx val="55713409"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12095,6 +9870,2906 @@
         </a:ln>
       </c:spPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1 Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.937009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1 Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.30279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.2 Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.364202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.2 Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.187888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="76466812"/>
+        <c:axId val="93503996"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="76466812"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93503996"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93503996"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76466812"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1 Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.937009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1 Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.30279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.081086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.059999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.936819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="57546438"/>
+        <c:axId val="23905302"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="57546438"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23905302"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="23905302"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57546438"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1 Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.937009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1 Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.30279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.081086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.059999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.936819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="4093087"/>
+        <c:axId val="21471362"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="4093087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21471362"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="21471362"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4093087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$27:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$27:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.798748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.412984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.794355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.190001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.46027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$27:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$27:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.51301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.193948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.838665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.259328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$27:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$F$27:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.926045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.429288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.936819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.882581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.130116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.207736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.373061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.45075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="82317000"/>
+        <c:axId val="37929408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82317000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37929408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37929408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82317000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$27:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$F$27:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.926045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.429288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.936819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.882581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.130116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.207736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.373061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.45075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="29315527"/>
+        <c:axId val="56749977"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="29315527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56749977"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56749977"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29315527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.081086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.059999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.936819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C.C Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$38:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.386505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C.C Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$39:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.115005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="76708294"/>
+        <c:axId val="59953960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="76708294"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59953960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59953960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76708294"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$47:$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>v1.0 Double</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v1.0 Single</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$47:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>570.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323.73999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="34405369"/>
+        <c:axId val="7986471"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="34405369"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7986471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7986471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34405369"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -12483,16 +13158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>505440</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>395640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>560520</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11160</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12500,8 +13175,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10258920" y="856080"/>
-        <a:ext cx="7370280" cy="4237560"/>
+        <a:off x="11774520" y="2189160"/>
+        <a:ext cx="7743600" cy="4789800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12513,16 +13188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>725040</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>801720</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12530,12 +13205,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5722560" y="4746600"/>
+        <a:off x="8852760" y="4378320"/>
         <a:ext cx="5766480" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>483480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11862360" y="0"/>
+        <a:ext cx="6865200" cy="3977280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>253080</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>329760</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11631960" y="8355240"/>
+        <a:ext cx="5766480" cy="3240360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25155,8 +25890,8 @@
   </sheetPr>
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K53" activeCellId="0" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -25227,6 +25962,12 @@
         <v>177</v>
       </c>
       <c r="K5" s="32"/>
+      <c r="O5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
@@ -25252,6 +25993,15 @@
       </c>
       <c r="K6" s="0" t="n">
         <v>17.059999</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>156.089996</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>7.92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26399,7 +27149,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -26858,8 +27608,8 @@
   </sheetPr>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -27741,7 +28491,10 @@
         <v>469.29</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>178</v>
+        <v>1</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>323.73999</v>
       </c>
       <c r="J57" s="29" t="s">
         <v>1</v>
@@ -27766,6 +28519,9 @@
       <c r="H58" s="29" t="s">
         <v>2</v>
       </c>
+      <c r="I58" s="0" t="n">
+        <v>312.440002</v>
+      </c>
       <c r="J58" s="29" t="s">
         <v>2</v>
       </c>
@@ -27790,9 +28546,9 @@
       <c r="H59" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="I59" s="0" t="e">
-        <f aca="false">$A$33*$B$33/I57/1000000</f>
-        <v>#DIV/0!</v>
+      <c r="I59" s="0" t="n">
+        <f aca="false">$A$54*$B$54/I57/1000000</f>
+        <v>64.7788986464107</v>
       </c>
       <c r="J59" s="29" t="s">
         <v>3</v>
@@ -28135,10 +28891,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I67" activeCellId="0" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -28475,8 +29231,94 @@
         <v>2.45075</v>
       </c>
     </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>18.386505</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>10.115005</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="0" t="n">
+        <v>570.03</v>
+      </c>
+      <c r="F47" s="37"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="37"/>
+      <c r="E48" s="0" t="n">
+        <v>323.73999</v>
+      </c>
+      <c r="F48" s="37"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>698.5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>469.29</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>275.579987</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>265.040009</v>
+      </c>
+      <c r="F52" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B28"/>
@@ -28484,6 +29326,7 @@
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Thesis/Resources/CGPerformance.xlsx
+++ b/Thesis/Resources/CGPerformance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="209">
   <si>
     <t xml:space="preserve">3D Parallel 1000</t>
   </si>
@@ -946,7 +946,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1095,6 +1095,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1175,7 +1183,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1426,7 +1434,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1567,11 +1575,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="60193464"/>
-        <c:axId val="80881550"/>
+        <c:axId val="14399315"/>
+        <c:axId val="76913002"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60193464"/>
+        <c:axId val="14399315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,14 +1623,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80881550"/>
+        <c:crossAx val="76913002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80881550"/>
+        <c:axId val="76913002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60193464"/>
+        <c:crossAx val="14399315"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1750,7 +1758,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1891,11 +1899,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25595594"/>
-        <c:axId val="71082858"/>
+        <c:axId val="8537847"/>
+        <c:axId val="38562671"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25595594"/>
+        <c:axId val="8537847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,14 +1938,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71082858"/>
+        <c:crossAx val="38562671"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71082858"/>
+        <c:axId val="38562671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2027,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25595594"/>
+        <c:crossAx val="8537847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2056,7 +2064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2318,7 +2326,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2459,11 +2467,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="33091302"/>
-        <c:axId val="77592140"/>
+        <c:axId val="18895533"/>
+        <c:axId val="71215517"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33091302"/>
+        <c:axId val="18895533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,14 +2506,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77592140"/>
+        <c:crossAx val="71215517"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77592140"/>
+        <c:axId val="71215517"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2595,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33091302"/>
+        <c:crossAx val="18895533"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2624,7 +2632,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8674,11 +8682,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="51431623"/>
-        <c:axId val="49629490"/>
+        <c:axId val="74964787"/>
+        <c:axId val="31262864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51431623"/>
+        <c:axId val="74964787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8713,14 +8721,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49629490"/>
+        <c:crossAx val="31262864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49629490"/>
+        <c:axId val="31262864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8764,7 +8772,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51431623"/>
+        <c:crossAx val="74964787"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8801,7 +8809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8874,11 +8882,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84093400"/>
-        <c:axId val="19920453"/>
+        <c:axId val="42974867"/>
+        <c:axId val="34993909"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84093400"/>
+        <c:axId val="42974867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8951,14 +8959,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19920453"/>
+        <c:crossAx val="34993909"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19920453"/>
+        <c:axId val="34993909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9040,7 +9048,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84093400"/>
+        <c:crossAx val="42974867"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9067,7 +9075,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9232,11 +9240,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="23844202"/>
-        <c:axId val="35123293"/>
+        <c:axId val="38548116"/>
+        <c:axId val="68868814"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23844202"/>
+        <c:axId val="38548116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9309,14 +9317,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35123293"/>
+        <c:crossAx val="68868814"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35123293"/>
+        <c:axId val="68868814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9398,7 +9406,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23844202"/>
+        <c:crossAx val="38548116"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9435,7 +9443,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9719,11 +9727,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55713409"/>
-        <c:axId val="34134749"/>
+        <c:axId val="37555542"/>
+        <c:axId val="21115622"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55713409"/>
+        <c:axId val="37555542"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9758,14 +9766,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34134749"/>
+        <c:crossAx val="21115622"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34134749"/>
+        <c:axId val="21115622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9847,7 +9855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55713409"/>
+        <c:crossAx val="37555542"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9884,7 +9892,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10164,11 +10172,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="76466812"/>
-        <c:axId val="93503996"/>
+        <c:axId val="9981272"/>
+        <c:axId val="1531052"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76466812"/>
+        <c:axId val="9981272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10203,14 +10211,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93503996"/>
+        <c:crossAx val="1531052"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93503996"/>
+        <c:axId val="1531052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10292,7 +10300,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76466812"/>
+        <c:crossAx val="9981272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10329,7 +10337,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10609,11 +10617,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="57546438"/>
-        <c:axId val="23905302"/>
+        <c:axId val="89299454"/>
+        <c:axId val="39950582"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57546438"/>
+        <c:axId val="89299454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10648,14 +10656,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23905302"/>
+        <c:crossAx val="39950582"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23905302"/>
+        <c:axId val="39950582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10737,7 +10745,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57546438"/>
+        <c:crossAx val="89299454"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10774,7 +10782,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11054,11 +11062,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="4093087"/>
-        <c:axId val="21471362"/>
+        <c:axId val="87837778"/>
+        <c:axId val="10965629"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4093087"/>
+        <c:axId val="87837778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11093,14 +11101,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21471362"/>
+        <c:crossAx val="10965629"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21471362"/>
+        <c:axId val="10965629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11182,7 +11190,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4093087"/>
+        <c:crossAx val="87837778"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11219,7 +11227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11666,11 +11674,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82317000"/>
-        <c:axId val="37929408"/>
+        <c:axId val="72790032"/>
+        <c:axId val="91807909"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82317000"/>
+        <c:axId val="72790032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11705,14 +11713,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37929408"/>
+        <c:crossAx val="91807909"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37929408"/>
+        <c:axId val="91807909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11794,7 +11802,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82317000"/>
+        <c:crossAx val="72790032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11831,7 +11839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11988,11 +11996,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="29315527"/>
-        <c:axId val="56749977"/>
+        <c:axId val="5568895"/>
+        <c:axId val="94704208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29315527"/>
+        <c:axId val="5568895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12027,14 +12035,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56749977"/>
+        <c:crossAx val="94704208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56749977"/>
+        <c:axId val="94704208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12116,7 +12124,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29315527"/>
+        <c:crossAx val="5568895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12143,7 +12151,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12423,11 +12431,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="76708294"/>
-        <c:axId val="59953960"/>
+        <c:axId val="28121573"/>
+        <c:axId val="26453263"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76708294"/>
+        <c:axId val="28121573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12462,14 +12470,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59953960"/>
+        <c:crossAx val="26453263"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59953960"/>
+        <c:axId val="26453263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12551,7 +12559,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76708294"/>
+        <c:crossAx val="28121573"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12588,7 +12596,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12667,11 +12675,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="34405369"/>
-        <c:axId val="7986471"/>
+        <c:axId val="14075231"/>
+        <c:axId val="70689128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="34405369"/>
+        <c:axId val="14075231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12706,14 +12714,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7986471"/>
+        <c:crossAx val="70689128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7986471"/>
+        <c:axId val="70689128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12757,7 +12765,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34405369"/>
+        <c:crossAx val="14075231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12772,6 +12780,638 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.0 Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$47:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>570.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.0 Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$48:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323.73999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$51:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>698.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>469.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>275.579987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.040009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="60203463"/>
+        <c:axId val="45369072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="60203463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45369072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45369072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60203463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$81:$D$85</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boundaries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Macroscopic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$81:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>138.848068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.890377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.637697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.71537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.010902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13276,6 +13916,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>669960</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4129920" y="7293240"/>
+        <a:ext cx="7106400" cy="4335120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585720</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>655560</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>35640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11964600" y="12238920"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -27608,8 +28308,8 @@
   </sheetPr>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H57" activeCellId="0" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -28544,11 +29244,10 @@
         <v>0.378547</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="I59" s="0" t="n">
-        <f aca="false">$A$54*$B$54/I57/1000000</f>
-        <v>64.7788986464107</v>
+        <v>0.322223</v>
       </c>
       <c r="J59" s="29" t="s">
         <v>3</v>
@@ -28563,6 +29262,12 @@
       </c>
       <c r="D60" s="0" t="n">
         <v>171.481796</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>138.848068</v>
       </c>
       <c r="J60" s="29" t="s">
         <v>4</v>
@@ -28580,8 +29285,12 @@
       <c r="D61" s="0" t="n">
         <v>62.200644</v>
       </c>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
+      <c r="H61" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" s="38" t="n">
+        <v>41.890377</v>
+      </c>
       <c r="J61" s="29" t="s">
         <v>5</v>
       </c>
@@ -28597,7 +29306,12 @@
       <c r="D62" s="0" t="n">
         <v>6.354612</v>
       </c>
-      <c r="H62" s="29"/>
+      <c r="H62" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>5.637697</v>
+      </c>
       <c r="J62" s="29" t="s">
         <v>6</v>
       </c>
@@ -28613,7 +29327,12 @@
       <c r="D63" s="0" t="n">
         <v>110.044451</v>
       </c>
-      <c r="H63" s="29"/>
+      <c r="H63" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>62.71537</v>
+      </c>
       <c r="J63" s="29" t="s">
         <v>7</v>
       </c>
@@ -28629,7 +29348,12 @@
       <c r="D64" s="0" t="n">
         <v>69.055508</v>
       </c>
-      <c r="H64" s="29"/>
+      <c r="H64" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>44.010902</v>
+      </c>
       <c r="J64" s="29" t="s">
         <v>8</v>
       </c>
@@ -28832,7 +29556,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="41">
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="A5:B5"/>
@@ -28870,7 +29594,6 @@
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="H61:I61"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="H67:I67"/>
@@ -28891,10 +29614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I67" activeCellId="0" sqref="I67"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N86" activeCellId="0" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -28939,13 +29662,13 @@
       <c r="B6" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="37" t="n">
+      <c r="C6" s="39" t="n">
         <v>17.99</v>
       </c>
-      <c r="D6" s="37" t="n">
+      <c r="D6" s="39" t="n">
         <v>10.24</v>
       </c>
-      <c r="E6" s="37" t="n">
+      <c r="E6" s="39" t="n">
         <v>20.38836</v>
       </c>
     </row>
@@ -28953,11 +29676,11 @@
       <c r="B7" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="37" t="n">
+      <c r="C7" s="39" t="n">
         <v>17.860001</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="n">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="n">
         <v>12.156735</v>
       </c>
     </row>
@@ -28969,13 +29692,13 @@
       <c r="B10" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="37" t="n">
+      <c r="C10" s="39" t="n">
         <v>18.67</v>
       </c>
-      <c r="D10" s="37" t="n">
+      <c r="D10" s="39" t="n">
         <v>11.07</v>
       </c>
-      <c r="E10" s="37" t="n">
+      <c r="E10" s="39" t="n">
         <v>21.001033</v>
       </c>
     </row>
@@ -28983,13 +29706,13 @@
       <c r="B11" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="37" t="n">
+      <c r="C11" s="39" t="n">
         <v>18.08</v>
       </c>
-      <c r="D11" s="37" t="n">
+      <c r="D11" s="39" t="n">
         <v>9.96</v>
       </c>
-      <c r="E11" s="37" t="n">
+      <c r="E11" s="39" t="n">
         <v>11.087945</v>
       </c>
     </row>
@@ -29006,7 +29729,7 @@
       <c r="D14" s="0" t="n">
         <v>10.85</v>
       </c>
-      <c r="E14" s="37" t="n">
+      <c r="E14" s="39" t="n">
         <v>19.937009</v>
       </c>
     </row>
@@ -29020,7 +29743,7 @@
       <c r="D15" s="0" t="n">
         <v>9.74</v>
       </c>
-      <c r="E15" s="37" t="n">
+      <c r="E15" s="39" t="n">
         <v>10.30279</v>
       </c>
     </row>
@@ -29034,7 +29757,7 @@
       <c r="D18" s="0" t="n">
         <v>10.64</v>
       </c>
-      <c r="E18" s="37" t="n">
+      <c r="E18" s="39" t="n">
         <v>21.364202</v>
       </c>
     </row>
@@ -29048,7 +29771,7 @@
       <c r="D19" s="0" t="n">
         <v>9.7</v>
       </c>
-      <c r="E19" s="37" t="n">
+      <c r="E19" s="39" t="n">
         <v>11.187888</v>
       </c>
     </row>
@@ -29062,7 +29785,7 @@
       <c r="D22" s="0" t="n">
         <v>10.62</v>
       </c>
-      <c r="E22" s="37" t="n">
+      <c r="E22" s="39" t="n">
         <v>18.081086</v>
       </c>
     </row>
@@ -29070,13 +29793,13 @@
       <c r="B23" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="37" t="n">
+      <c r="C23" s="39" t="n">
         <v>17.059999</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>9.91</v>
       </c>
-      <c r="E23" s="37" t="n">
+      <c r="E23" s="39" t="n">
         <v>9.936819</v>
       </c>
     </row>
@@ -29101,13 +29824,13 @@
       <c r="C27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="37" t="n">
+      <c r="D27" s="39" t="n">
         <v>20.73</v>
       </c>
-      <c r="E27" s="37" t="n">
+      <c r="E27" s="39" t="n">
         <v>9.47</v>
       </c>
-      <c r="F27" s="37" t="n">
+      <c r="F27" s="39" t="n">
         <v>17.926045</v>
       </c>
     </row>
@@ -29117,13 +29840,13 @@
       <c r="C28" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="37" t="n">
+      <c r="D28" s="39" t="n">
         <v>1.798748</v>
       </c>
-      <c r="E28" s="37" t="n">
+      <c r="E28" s="39" t="n">
         <v>1.51301</v>
       </c>
-      <c r="F28" s="37" t="n">
+      <c r="F28" s="39" t="n">
         <v>6.429288</v>
       </c>
     </row>
@@ -29135,13 +29858,13 @@
       <c r="C29" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="37" t="n">
+      <c r="D29" s="39" t="n">
         <v>16.74</v>
       </c>
-      <c r="E29" s="37" t="n">
+      <c r="E29" s="39" t="n">
         <v>8.81</v>
       </c>
-      <c r="F29" s="37" t="n">
+      <c r="F29" s="39" t="n">
         <v>9.936819</v>
       </c>
     </row>
@@ -29151,13 +29874,13 @@
       <c r="C30" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="37" t="n">
+      <c r="D30" s="39" t="n">
         <v>1.412984</v>
       </c>
-      <c r="E30" s="37" t="n">
+      <c r="E30" s="39" t="n">
         <v>1.193948</v>
       </c>
-      <c r="F30" s="37" t="n">
+      <c r="F30" s="39" t="n">
         <v>1.882581</v>
       </c>
     </row>
@@ -29171,13 +29894,13 @@
       <c r="C31" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="37" t="n">
+      <c r="D31" s="39" t="n">
         <v>22.94</v>
       </c>
-      <c r="E31" s="37" t="n">
+      <c r="E31" s="39" t="n">
         <v>10.74</v>
       </c>
-      <c r="F31" s="38" t="n">
+      <c r="F31" s="40" t="n">
         <v>24.130116</v>
       </c>
     </row>
@@ -29187,13 +29910,13 @@
       <c r="C32" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="37" t="n">
+      <c r="D32" s="39" t="n">
         <v>2.794355</v>
       </c>
-      <c r="E32" s="37" t="n">
+      <c r="E32" s="39" t="n">
         <v>2.838665</v>
       </c>
-      <c r="F32" s="37" t="n">
+      <c r="F32" s="39" t="n">
         <v>13.207736</v>
       </c>
     </row>
@@ -29205,13 +29928,13 @@
       <c r="C33" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="37" t="n">
+      <c r="D33" s="39" t="n">
         <v>18.190001</v>
       </c>
-      <c r="E33" s="37" t="n">
+      <c r="E33" s="39" t="n">
         <v>9.75</v>
       </c>
-      <c r="F33" s="37" t="n">
+      <c r="F33" s="39" t="n">
         <v>10.373061</v>
       </c>
     </row>
@@ -29221,13 +29944,13 @@
       <c r="C34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="37" t="n">
+      <c r="D34" s="39" t="n">
         <v>2.46027</v>
       </c>
-      <c r="E34" s="37" t="n">
+      <c r="E34" s="39" t="n">
         <v>2.259328</v>
       </c>
-      <c r="F34" s="37" t="n">
+      <c r="F34" s="39" t="n">
         <v>2.45075</v>
       </c>
     </row>
@@ -29274,21 +29997,21 @@
       <c r="C47" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="37"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="0" t="n">
         <v>570.03</v>
       </c>
-      <c r="F47" s="37"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="37"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="0" t="n">
         <v>323.73999</v>
       </c>
-      <c r="F48" s="37"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="32"/>
@@ -29315,7 +30038,138 @@
       <c r="E52" s="0" t="n">
         <v>265.040009</v>
       </c>
-      <c r="F52" s="37"/>
+      <c r="F52" s="39"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="29"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="29"/>
+      <c r="F55" s="39"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="29"/>
+      <c r="F56" s="39"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="29"/>
+      <c r="F59" s="39"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="29"/>
+      <c r="F60" s="39"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>323.73999</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>265.040009</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>312.440002</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>253.580002</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0.322223</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0.336721</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>138.848068</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>76.123222</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="38" t="n">
+        <v>41.890377</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>36.679489</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>5.637697</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>5.879762</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>62.71537</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>64.443375</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>44.010902</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>49.072239</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Thesis/Resources/CGPerformance.xlsx
+++ b/Thesis/Resources/CGPerformance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="209">
   <si>
     <t xml:space="preserve">3D Parallel 1000</t>
   </si>
@@ -662,11 +662,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -688,10 +689,16 @@
       <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -712,21 +719,24 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -955,27 +965,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,83 +993,87 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1067,23 +1081,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1183,7 +1193,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1434,7 +1444,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1575,11 +1585,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="14399315"/>
-        <c:axId val="76913002"/>
+        <c:axId val="67417961"/>
+        <c:axId val="32898835"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14399315"/>
+        <c:axId val="67417961"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,14 +1633,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76913002"/>
+        <c:crossAx val="32898835"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76913002"/>
+        <c:axId val="32898835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1731,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14399315"/>
+        <c:crossAx val="67417961"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1758,7 +1768,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1899,11 +1909,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="8537847"/>
-        <c:axId val="38562671"/>
+        <c:axId val="65752461"/>
+        <c:axId val="11437888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8537847"/>
+        <c:axId val="65752461"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,14 +1948,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38562671"/>
+        <c:crossAx val="11437888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38562671"/>
+        <c:axId val="11437888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,7 +2037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8537847"/>
+        <c:crossAx val="65752461"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2064,7 +2074,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2114,10 +2124,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.194702808043228"/>
-          <c:y val="0.147019572953737"/>
-          <c:w val="0.531756577199043"/>
-          <c:h val="0.828959074733096"/>
+          <c:x val="0.194681300126636"/>
+          <c:y val="0.146973742768135"/>
+          <c:w val="0.531701139721401"/>
+          <c:h val="0.828882955051179"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -2326,7 +2336,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2467,11 +2477,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="18895533"/>
-        <c:axId val="71215517"/>
+        <c:axId val="33848600"/>
+        <c:axId val="88740662"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18895533"/>
+        <c:axId val="33848600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,14 +2516,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71215517"/>
+        <c:crossAx val="88740662"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71215517"/>
+        <c:axId val="88740662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,7 +2605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18895533"/>
+        <c:crossAx val="33848600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2632,7 +2642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2655,6 +2665,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8682,11 +8693,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="74964787"/>
-        <c:axId val="31262864"/>
+        <c:axId val="13761362"/>
+        <c:axId val="50828687"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74964787"/>
+        <c:axId val="13761362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8721,14 +8732,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31262864"/>
+        <c:crossAx val="50828687"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31262864"/>
+        <c:axId val="50828687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8743,7 +8754,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8772,7 +8783,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74964787"/>
+        <c:crossAx val="13761362"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8809,7 +8820,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8843,6 +8854,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -8882,11 +8894,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="42974867"/>
-        <c:axId val="34993909"/>
+        <c:axId val="24786440"/>
+        <c:axId val="14595340"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42974867"/>
+        <c:axId val="24786440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8959,14 +8971,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34993909"/>
+        <c:crossAx val="14595340"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34993909"/>
+        <c:axId val="14595340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9019,7 +9031,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9048,7 +9060,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42974867"/>
+        <c:crossAx val="24786440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9075,7 +9087,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9086,10 +9098,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.140770335226918"/>
-          <c:y val="0.0387691624083537"/>
-          <c:w val="0.744927898120981"/>
-          <c:h val="0.756942901577427"/>
+          <c:x val="0.140773620798985"/>
+          <c:y val="0.0387734696144873"/>
+          <c:w val="0.744895370957514"/>
+          <c:h val="0.756804799466726"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -9120,6 +9132,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -9189,12 +9202,14 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
             </c:dLbl>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -9240,11 +9255,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="38548116"/>
-        <c:axId val="68868814"/>
+        <c:axId val="22364421"/>
+        <c:axId val="92749212"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38548116"/>
+        <c:axId val="22364421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9317,14 +9332,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68868814"/>
+        <c:crossAx val="92749212"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68868814"/>
+        <c:axId val="92749212"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9377,7 +9392,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9406,7 +9421,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38548116"/>
+        <c:crossAx val="22364421"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9443,7 +9458,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9727,11 +9742,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="37555542"/>
-        <c:axId val="21115622"/>
+        <c:axId val="85354816"/>
+        <c:axId val="45548260"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37555542"/>
+        <c:axId val="85354816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9766,14 +9781,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21115622"/>
+        <c:crossAx val="45548260"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21115622"/>
+        <c:axId val="45548260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9826,7 +9841,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9855,7 +9870,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37555542"/>
+        <c:crossAx val="85354816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9892,7 +9907,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9926,6 +9941,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -9993,6 +10009,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10060,6 +10077,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10127,6 +10145,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10172,11 +10191,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="9981272"/>
-        <c:axId val="1531052"/>
+        <c:axId val="51564503"/>
+        <c:axId val="64252018"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9981272"/>
+        <c:axId val="51564503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10211,14 +10230,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1531052"/>
+        <c:crossAx val="64252018"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1531052"/>
+        <c:axId val="64252018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10271,7 +10290,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10300,7 +10319,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9981272"/>
+        <c:crossAx val="51564503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10337,7 +10356,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10371,6 +10390,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10438,6 +10458,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10505,6 +10526,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10572,6 +10594,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10617,11 +10640,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="89299454"/>
-        <c:axId val="39950582"/>
+        <c:axId val="36346540"/>
+        <c:axId val="30796450"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89299454"/>
+        <c:axId val="36346540"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10656,14 +10679,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39950582"/>
+        <c:crossAx val="30796450"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39950582"/>
+        <c:axId val="30796450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10716,7 +10739,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10745,7 +10768,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89299454"/>
+        <c:crossAx val="36346540"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10782,7 +10805,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10816,6 +10839,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10883,6 +10907,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10950,6 +10975,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -11017,6 +11043,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -11062,11 +11089,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="87837778"/>
-        <c:axId val="10965629"/>
+        <c:axId val="15869223"/>
+        <c:axId val="57580310"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87837778"/>
+        <c:axId val="15869223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11101,14 +11128,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10965629"/>
+        <c:crossAx val="57580310"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10965629"/>
+        <c:axId val="57580310"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11161,7 +11188,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11190,7 +11217,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87837778"/>
+        <c:crossAx val="15869223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11227,7 +11254,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11261,6 +11288,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -11406,6 +11434,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -11551,6 +11580,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -11674,11 +11704,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="72790032"/>
-        <c:axId val="91807909"/>
+        <c:axId val="91818896"/>
+        <c:axId val="5910790"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72790032"/>
+        <c:axId val="91818896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11713,14 +11743,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91807909"/>
+        <c:crossAx val="5910790"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91807909"/>
+        <c:axId val="5910790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11773,7 +11803,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11802,7 +11832,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72790032"/>
+        <c:crossAx val="91818896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11839,7 +11869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11873,6 +11903,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -11996,11 +12027,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="5568895"/>
-        <c:axId val="94704208"/>
+        <c:axId val="38848323"/>
+        <c:axId val="6205686"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5568895"/>
+        <c:axId val="38848323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12035,14 +12066,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94704208"/>
+        <c:crossAx val="6205686"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94704208"/>
+        <c:axId val="6205686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12095,7 +12126,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12124,7 +12155,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5568895"/>
+        <c:crossAx val="38848323"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12151,7 +12182,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12185,6 +12216,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -12252,6 +12284,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -12319,6 +12352,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -12386,6 +12420,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -12431,11 +12466,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="28121573"/>
-        <c:axId val="26453263"/>
+        <c:axId val="85742348"/>
+        <c:axId val="34302054"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28121573"/>
+        <c:axId val="85742348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12470,14 +12505,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26453263"/>
+        <c:crossAx val="34302054"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26453263"/>
+        <c:axId val="34302054"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12530,7 +12565,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12559,7 +12594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28121573"/>
+        <c:crossAx val="85742348"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12596,7 +12631,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12630,6 +12665,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -12675,11 +12711,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="14075231"/>
-        <c:axId val="70689128"/>
+        <c:axId val="65767042"/>
+        <c:axId val="75867459"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14075231"/>
+        <c:axId val="65767042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12714,14 +12750,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70689128"/>
+        <c:crossAx val="75867459"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70689128"/>
+        <c:axId val="75867459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12736,7 +12772,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12765,7 +12801,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14075231"/>
+        <c:crossAx val="65767042"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12792,7 +12828,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12826,6 +12862,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -12887,6 +12924,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -12948,6 +12986,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -13009,6 +13048,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -13048,11 +13088,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="60203463"/>
-        <c:axId val="45369072"/>
+        <c:axId val="44543141"/>
+        <c:axId val="66493484"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60203463"/>
+        <c:axId val="44543141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13087,14 +13127,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45369072"/>
+        <c:crossAx val="66493484"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45369072"/>
+        <c:axId val="66493484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13147,7 +13187,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13176,7 +13216,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60203463"/>
+        <c:crossAx val="44543141"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13213,7 +13253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13412,6 +13452,1197 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$91:$D$95</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boundaries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Macroscopic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$91:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.382435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.121811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.298546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.859915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$F$81:$F$85</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boundaries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Macroscopic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$G$81:$G$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>76.123222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.679489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.879762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.443375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.072239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$51:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>698.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>469.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>275.579987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.040009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C.C Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$55:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>575.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>473.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C.C Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$56:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>272.209991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.029999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="55459463"/>
+        <c:axId val="89268060"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55459463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89268060"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89268060"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55459463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$59:$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$59:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>457.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.481796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>816.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>418.299988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$F$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$59:$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$F$59:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>253.580002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.123222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>538.145565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>254.965073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="83526815"/>
+        <c:axId val="26381817"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83526815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26381817"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="26381817"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83526815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13435,9 +14666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>437040</xdr:colOff>
+      <xdr:colOff>436680</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13445,8 +14676,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6801840" y="124560"/>
-        <a:ext cx="5138640" cy="3220200"/>
+        <a:off x="6928560" y="124560"/>
+        <a:ext cx="5099760" cy="3219840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13465,9 +14696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1227240</xdr:colOff>
+      <xdr:colOff>1226880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13475,8 +14706,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5574240" y="4882680"/>
-        <a:ext cx="3975120" cy="3231720"/>
+        <a:off x="5643720" y="4882680"/>
+        <a:ext cx="4003200" cy="3231360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13495,9 +14726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
+      <xdr:colOff>336600</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13505,8 +14736,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7742160" y="8376840"/>
-        <a:ext cx="4098240" cy="3237840"/>
+        <a:off x="7849440" y="8376840"/>
+        <a:ext cx="4078800" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13525,9 +14756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>198000</xdr:colOff>
+      <xdr:colOff>197640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13535,8 +14766,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12209400" y="283320"/>
-        <a:ext cx="4064040" cy="3235680"/>
+        <a:off x="12326040" y="283320"/>
+        <a:ext cx="4263840" cy="3235320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13555,9 +14786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>690840</xdr:colOff>
+      <xdr:colOff>690480</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13565,8 +14796,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3493080" y="8319240"/>
-        <a:ext cx="3471840" cy="3237840"/>
+        <a:off x="3476520" y="8319240"/>
+        <a:ext cx="3614760" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13585,9 +14816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>535320</xdr:colOff>
+      <xdr:colOff>534960</xdr:colOff>
       <xdr:row>979</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13595,8 +14826,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10851120" y="155930040"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="10929960" y="155930040"/>
+        <a:ext cx="5997240" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13620,9 +14851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>443160</xdr:colOff>
+      <xdr:colOff>442800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13630,8 +14861,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12305160" y="8797320"/>
-        <a:ext cx="5758920" cy="3241800"/>
+        <a:off x="12162240" y="8797320"/>
+        <a:ext cx="5663520" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13655,9 +14886,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>725040</xdr:colOff>
+      <xdr:colOff>724680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13665,8 +14896,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5524920" y="10800"/>
-        <a:ext cx="5766480" cy="3240360"/>
+        <a:off x="5448960" y="10800"/>
+        <a:ext cx="5676840" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13685,9 +14916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>417240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13695,8 +14926,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10327680" y="219960"/>
-        <a:ext cx="7158600" cy="3790080"/>
+        <a:off x="10175400" y="219960"/>
+        <a:ext cx="7043760" cy="3789720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13715,9 +14946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>417240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13725,8 +14956,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10533600" y="4161600"/>
-        <a:ext cx="6952680" cy="4010040"/>
+        <a:off x="10381320" y="4161600"/>
+        <a:ext cx="6837840" cy="4009680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13745,9 +14976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>131760</xdr:colOff>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13755,8 +14986,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7369920" y="3392280"/>
-        <a:ext cx="5766480" cy="3240720"/>
+        <a:off x="7255440" y="3392280"/>
+        <a:ext cx="5677560" cy="3240360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13775,9 +15006,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13785,8 +15016,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5481000" y="3522240"/>
-        <a:ext cx="6755040" cy="3793320"/>
+        <a:off x="5405040" y="3522240"/>
+        <a:ext cx="6640200" cy="3792960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13805,9 +15036,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13815,8 +15046,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11774520" y="2189160"/>
-        <a:ext cx="7743600" cy="4789800"/>
+        <a:off x="11597040" y="2189160"/>
+        <a:ext cx="7616160" cy="4789440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13834,10 +15065,10 @@
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>801720</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13845,8 +15076,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8852760" y="4378320"/>
-        <a:ext cx="5766480" cy="3240720"/>
+        <a:off x="8726040" y="4378320"/>
+        <a:ext cx="5676840" cy="3240360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13865,9 +15096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
+      <xdr:colOff>33120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13875,8 +15106,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11862360" y="0"/>
-        <a:ext cx="6865200" cy="3977280"/>
+        <a:off x="11684880" y="0"/>
+        <a:ext cx="6750360" cy="3976920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13895,9 +15126,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>329760</xdr:colOff>
+      <xdr:colOff>329400</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13905,8 +15136,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11631960" y="8355240"/>
-        <a:ext cx="5766480" cy="3240360"/>
+        <a:off x="11454480" y="8355240"/>
+        <a:ext cx="5676840" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13918,16 +15149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>362160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>669960</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>165240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13935,8 +15166,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4129920" y="7293240"/>
-        <a:ext cx="7106400" cy="4335120"/>
+        <a:off x="10763280" y="3846960"/>
+        <a:ext cx="7004160" cy="4334760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13955,9 +15186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>655560</xdr:colOff>
+      <xdr:colOff>655200</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13965,12 +15196,132 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11964600" y="12238920"/>
+        <a:off x="11787120" y="12238920"/>
+        <a:ext cx="5670000" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403560</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5845320" y="11451960"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>195120</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5636880" y="13040640"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263520</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9064440" y="4465080"/>
+        <a:ext cx="7157160" cy="4096800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>329040</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>636120</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5929560" y="8561520"/>
+        <a:ext cx="6707880" cy="3522240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13992,13 +15343,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22665,20 +24019,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="31" min="28" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26591,22 +27953,21 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K53" activeCellId="0" sqref="K53"/>
+      <selection pane="topLeft" activeCell="I64" activeCellId="0" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27846,24 +29207,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27922,10 +29281,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20.38836</v>
+        <v>20.46628</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>1</v>
@@ -27934,10 +29293,10 @@
         <v>18.081086</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>12.156735</v>
+        <v>11.911323</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>1</v>
@@ -27948,11 +29307,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="n">
-        <f aca="false">$A$3*$B$3/B6/1000000</f>
-        <v>8.03595777198362</v>
+        <v>20.324705</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>2</v>
@@ -27961,11 +29319,10 @@
         <v>17.926045</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="I7" s="0" t="n">
-        <f aca="false">$A$3*$B$3/I6/1000000</f>
-        <v>13.4773029106911</v>
+        <v>11.751983</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>2</v>
@@ -27975,12 +29332,24 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.006939</v>
+      </c>
       <c r="C8" s="29" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0.008062</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.007722</v>
+      </c>
       <c r="J8" s="29" t="s">
         <v>3</v>
       </c>
@@ -27989,20 +29358,24 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="32"/>
+      <c r="A9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9.036464</v>
+      </c>
       <c r="C9" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6.429288</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="I9" s="32"/>
+      <c r="H9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>3.382435</v>
+      </c>
       <c r="J9" s="29" t="s">
         <v>4</v>
       </c>
@@ -28011,11 +29384,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>178</v>
+      <c r="A10" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>21.001033</v>
+        <v>1.7463</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>5</v>
@@ -28023,11 +29396,11 @@
       <c r="D10" s="0" t="n">
         <v>1.809068</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>178</v>
+      <c r="H10" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>11.087945</v>
+        <v>1.121811</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>5</v>
@@ -28037,12 +29410,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>179</v>
+      <c r="A11" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
-        <f aca="false">$A$3*$B$3/B10/1000000</f>
-        <v>7.8015210013717</v>
+        <v>0.320566</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>6</v>
@@ -28050,12 +29422,11 @@
       <c r="D11" s="0" t="n">
         <v>0.315806</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>179</v>
+      <c r="H11" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="I11" s="0" t="n">
-        <f aca="false">$A$3*$B$3/I10/1000000</f>
-        <v>14.7764080720097</v>
+        <v>0.298546</v>
       </c>
       <c r="J11" s="29" t="s">
         <v>6</v>
@@ -28065,12 +29436,24 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3.759886</v>
+      </c>
       <c r="C12" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3.876738</v>
       </c>
+      <c r="H12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2.05999</v>
+      </c>
       <c r="J12" s="29" t="s">
         <v>7</v>
       </c>
@@ -28079,20 +29462,24 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="32"/>
+      <c r="A13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4.148637</v>
+      </c>
       <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>4.176064</v>
       </c>
-      <c r="H13" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" s="32"/>
+      <c r="H13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3.859915</v>
+      </c>
       <c r="J13" s="29" t="s">
         <v>8</v>
       </c>
@@ -28101,174 +29488,226 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
+      <c r="C14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="H15" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B16" s="0" t="n">
+        <v>21.001033</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>11.087945</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B16/1000000</f>
+        <v>7.8015210013717</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I16/1000000</f>
+        <v>14.7764080720097</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="H19" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="0" t="n">
         <v>19.937009</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="H14" s="29" t="s">
+      <c r="H20" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>10.30279</v>
       </c>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <f aca="false">$A$3*$B$3/B14/1000000</f>
+      <c r="B21" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B20/1000000</f>
         <v>8.21788263224439</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H21" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <f aca="false">$A$3*$B$3/I14/1000000</f>
+      <c r="I21" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I20/1000000</f>
         <v>15.9024885492182</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="H17" s="32" t="s">
+      <c r="B23" s="32"/>
+      <c r="H23" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>21.364202</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>11.187888</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <f aca="false">$A$3*$B$3/B18/1000000</f>
-        <v>7.66890333652528</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <f aca="false">$A$3*$B$3/I18/1000000</f>
-        <v>14.6444083101297</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="H21" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>18.386505</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="35" t="n">
-        <v>24.130116</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>10.115005</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>10.373061</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>18.24269</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>13.207736</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>9.971847</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>2.45075</v>
-      </c>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>21.364202</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>11.187888</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <f aca="false">$A$3*$B$3/B22/1000000</f>
+      <c r="B25" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B24/1000000</f>
+        <v>7.66890333652528</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I24/1000000</f>
+        <v>14.6444083101297</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="H27" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>18.386505</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="35" t="n">
+        <v>24.130116</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>10.115005</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>10.373061</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>18.24269</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>13.207736</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>9.971847</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>2.45075</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">$A$3*$B$3/B28/1000000</f>
         <v>8.91088328097156</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C30" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <f aca="false">$A$3*$B$3/D22/1000000</f>
+      <c r="D30" s="0" t="n">
+        <f aca="false">$A$3*$B$3/D28/1000000</f>
         <v>6.78985546526175</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H30" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">$A$3*$B$3/I22/1000000</f>
+      <c r="I30" s="0" t="n">
+        <f aca="false">$A$3*$B$3/I28/1000000</f>
         <v>16.1977181425022</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J30" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="K24" s="0" t="n">
-        <f aca="false">$A$3*$B$3/K22/1000000</f>
+      <c r="K30" s="0" t="n">
+        <f aca="false">$A$3*$B$3/K28/1000000</f>
         <v>15.7947591361894</v>
       </c>
     </row>
@@ -28280,16 +29719,16 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -28308,22 +29747,20 @@
   </sheetPr>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H57" activeCellId="0" sqref="H57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K60" activeCellId="0" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29417,6 +30854,9 @@
       <c r="J68" s="29" t="s">
         <v>2</v>
       </c>
+      <c r="K68" s="0" t="n">
+        <v>418.299988</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="29" t="s">
@@ -29440,6 +30880,9 @@
       <c r="J69" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="K69" s="0" t="n">
+        <v>254.965073</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="29" t="s">
@@ -29464,9 +30907,9 @@
       <c r="J70" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="K70" s="0" t="e">
+      <c r="K70" s="0" t="n">
         <f aca="false">$A$54*$B$54/K68/1000000</f>
-        <v>#DIV/0!</v>
+        <v>50.1351197743759</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29614,15 +31057,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N86" activeCellId="0" sqref="N86"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29815,10 +31258,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C27" s="29" t="s">
@@ -29835,8 +31278,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="29" t="s">
         <v>4</v>
       </c>
@@ -29851,8 +31294,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="29" t="s">
@@ -29869,8 +31312,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="29" t="s">
         <v>4</v>
       </c>
@@ -29885,10 +31328,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="29" t="s">
@@ -29905,8 +31348,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="29" t="s">
         <v>4</v>
       </c>
@@ -29921,8 +31364,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="29" t="s">
@@ -29939,8 +31382,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="29" t="s">
         <v>4</v>
       </c>
@@ -29989,9 +31432,6 @@
       <c r="E46" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="29" t="s">
@@ -30044,20 +31484,134 @@
       <c r="C53" s="29"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="29"/>
+      <c r="C55" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>575.64</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>473.89</v>
+      </c>
       <c r="F55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="29"/>
+      <c r="C56" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>272.209991</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>257.029999</v>
+      </c>
       <c r="F56" s="39"/>
     </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="29"/>
-      <c r="F59" s="39"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>457.81</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>253.580002</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="29"/>
-      <c r="F60" s="39"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>171.481796</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>76.123222</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>816.16</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>538.145565</v>
+      </c>
+      <c r="G61" s="39"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>418.299988</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>254.965073</v>
+      </c>
+      <c r="G62" s="39"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="29"/>
+      <c r="G63" s="40"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="E64" s="39"/>
+      <c r="G64" s="39"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="E65" s="39"/>
+      <c r="G65" s="39"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="E66" s="39"/>
+      <c r="G66" s="39"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="40"/>
+      <c r="B72" s="39"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="29" t="s">
@@ -30171,8 +31725,120 @@
         <v>49.072239</v>
       </c>
     </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>11.911323</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>10.550231</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>11.751983</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>9.936819</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0.007722</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>0.006028</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>3.382435</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>1.882581</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1.121811</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>1.009695</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0.298546</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>0.291298</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>2.05999</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>2.031182</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>3.859915</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>3.928059</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B28"/>
@@ -30181,6 +31847,12 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Thesis/Resources/CGPerformance.xlsx
+++ b/Thesis/Resources/CGPerformance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="209">
   <si>
     <t xml:space="preserve">3D Parallel 1000</t>
   </si>
@@ -729,16 +729,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -956,7 +956,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1097,7 +1097,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,8 +1117,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1193,7 +1197,4289 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart100.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1 Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.937009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2.1 Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.30279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.081086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.059999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.936819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="26373548"/>
+        <c:axId val="16446868"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="26373548"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16446868"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16446868"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26373548"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart101.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$27:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$27:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.798748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.412984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.794355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.190001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.46027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$27:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$27:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.51301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.193948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.838665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.259328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$27:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$F$27:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.926045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.429288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.936819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.882581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.130116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.207736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.373061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.45075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="652142"/>
+        <c:axId val="76610583"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="652142"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76610583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76610583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652142"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart102.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$27:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$F$27:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.926045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.429288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.936819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.882581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.130116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.207736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.373061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.45075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="69582873"/>
+        <c:axId val="83072327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69582873"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83072327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83072327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69582873"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart103.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.081086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.059999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.936819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C.C Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$38:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.386505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C.C Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$39:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.115005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="74711127"/>
+        <c:axId val="89267238"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74711127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89267238"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89267238"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74711127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart104.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$47:$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>v1.0 Double</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v1.0 Single</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$47:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>570.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323.73999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="71773678"/>
+        <c:axId val="26849213"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71773678"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26849213"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="26849213"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71773678"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart105.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.0 Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$47:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>570.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.0 Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$48:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323.73999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$51:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>698.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>469.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>275.579987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.040009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="44560530"/>
+        <c:axId val="90510254"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44560530"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90510254"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90510254"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44560530"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart106.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$81:$D$85</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boundaries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Macroscopic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$81:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>138.848068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.890377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.637697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.71537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.010902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart107.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$91:$D$95</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boundaries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Macroscopic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$91:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.382435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.121811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.298546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.859915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart108.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$F$81:$F$85</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Collision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Streaming</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boundaries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Macroscopic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$G$81:$G$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>76.123222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.679489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.879762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.443375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.072239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart109.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$51:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>698.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>469.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>275.579987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.040009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C.C Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$55:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>575.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>473.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C.C Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$D$46:$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$56:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>272.209991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.029999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="34588063"/>
+        <c:axId val="58510446"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="34588063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58510446"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58510446"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34588063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart110.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$59:$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$59:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>457.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.481796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>816.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>418.299988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$F$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$C$59:$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$F$59:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>253.580002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.123222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>538.145565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>254.965073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="96633477"/>
+        <c:axId val="14993064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96633477"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14993064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14993064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96633477"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart111.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$101:$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$101:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$101:$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$101:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$E$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$101:$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Double</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$101:$E$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="55639377"/>
+        <c:axId val="9746822"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55639377"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9746822"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="9746822"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>MLUPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55639377"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1444,7 +5730,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1585,11 +5871,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="67417961"/>
-        <c:axId val="32898835"/>
+        <c:axId val="24405081"/>
+        <c:axId val="61679864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67417961"/>
+        <c:axId val="24405081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,14 +5919,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32898835"/>
+        <c:crossAx val="61679864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32898835"/>
+        <c:axId val="61679864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +6017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67417961"/>
+        <c:crossAx val="24405081"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1768,7 +6054,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart90.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1909,11 +6195,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="65752461"/>
-        <c:axId val="11437888"/>
+        <c:axId val="85237303"/>
+        <c:axId val="53075840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65752461"/>
+        <c:axId val="85237303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,14 +6234,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11437888"/>
+        <c:crossAx val="53075840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11437888"/>
+        <c:axId val="53075840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,7 +6323,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65752461"/>
+        <c:crossAx val="85237303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2074,7 +6360,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart91.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2336,7 +6622,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart92.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2477,11 +6763,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="33848600"/>
-        <c:axId val="88740662"/>
+        <c:axId val="63718360"/>
+        <c:axId val="35100858"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33848600"/>
+        <c:axId val="63718360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,14 +6802,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88740662"/>
+        <c:crossAx val="35100858"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88740662"/>
+        <c:axId val="35100858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +6891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33848600"/>
+        <c:crossAx val="63718360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2642,7 +6928,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart93.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8693,11 +12979,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="13761362"/>
-        <c:axId val="50828687"/>
+        <c:axId val="53195198"/>
+        <c:axId val="49890137"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13761362"/>
+        <c:axId val="53195198"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8732,14 +13018,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50828687"/>
+        <c:crossAx val="49890137"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50828687"/>
+        <c:axId val="49890137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8783,7 +13069,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13761362"/>
+        <c:crossAx val="53195198"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8820,7 +13106,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart94.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8894,54 +13180,16 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="24786440"/>
-        <c:axId val="14595340"/>
+        <c:axId val="49673082"/>
+        <c:axId val="80170485"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24786440"/>
+        <c:axId val="49673082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Overall</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -8971,14 +13219,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14595340"/>
+        <c:crossAx val="80170485"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14595340"/>
+        <c:axId val="80170485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9060,7 +13308,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24786440"/>
+        <c:crossAx val="49673082"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9087,7 +13335,235 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart95.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Delta performance'!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Delta performance'!$O$5:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Delta performance'!$O$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>156.089996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="61725438"/>
+        <c:axId val="17122231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="61725438"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17122231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="17122231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61725438"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart96.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9255,11 +13731,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="22364421"/>
-        <c:axId val="92749212"/>
+        <c:axId val="83778431"/>
+        <c:axId val="15048805"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22364421"/>
+        <c:axId val="83778431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9332,14 +13808,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92749212"/>
+        <c:crossAx val="15048805"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92749212"/>
+        <c:axId val="15048805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9421,7 +13897,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22364421"/>
+        <c:crossAx val="83778431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9458,7 +13934,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart97.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9742,11 +14218,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="85354816"/>
-        <c:axId val="45548260"/>
+        <c:axId val="5029944"/>
+        <c:axId val="26561988"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85354816"/>
+        <c:axId val="5029944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9781,14 +14257,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45548260"/>
+        <c:crossAx val="26561988"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45548260"/>
+        <c:axId val="26561988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9870,7 +14346,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85354816"/>
+        <c:crossAx val="5029944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9907,7 +14383,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart98.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10191,11 +14667,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="51564503"/>
-        <c:axId val="64252018"/>
+        <c:axId val="4926455"/>
+        <c:axId val="59895143"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51564503"/>
+        <c:axId val="4926455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10230,14 +14706,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64252018"/>
+        <c:crossAx val="59895143"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64252018"/>
+        <c:axId val="59895143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10319,7 +14795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51564503"/>
+        <c:crossAx val="4926455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10356,7 +14832,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart99.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10640,11 +15116,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="36346540"/>
-        <c:axId val="30796450"/>
+        <c:axId val="87190509"/>
+        <c:axId val="82453636"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36346540"/>
+        <c:axId val="87190509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10679,14 +15155,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30796450"/>
+        <c:crossAx val="82453636"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30796450"/>
+        <c:axId val="82453636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10768,3857 +15244,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36346540"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.1 Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$14:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.937009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2.1 Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$15:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.74</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.30279</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$22:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.081086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$23:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.059999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.936819</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="15869223"/>
-        <c:axId val="57580310"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="15869223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="57580310"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="57580310"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="15869223"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$D$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$A$27:$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Collision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$27:$D$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.798748</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.412984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.794355</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.190001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.46027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$E$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$A$27:$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Collision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$E$27:$E$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9.47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.51301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.81</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.193948</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.74</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.838665</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.259328</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$F$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$A$27:$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Collision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$F$27:$F$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>17.926045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.429288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.936819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.882581</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.130116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.207736</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.373061</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.45075</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="91818896"/>
-        <c:axId val="5910790"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="91818896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="5910790"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="5910790"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91818896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$F$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$A$27:$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Collision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$F$27:$F$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>17.926045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.429288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.936819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.882581</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.130116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.207736</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.373061</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.45075</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="38848323"/>
-        <c:axId val="6205686"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="38848323"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="6205686"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="6205686"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="38848323"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$22:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.081086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$23:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.059999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.936819</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C.C Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$38:$E$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21.44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.386505</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C.C Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$5:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$C$39:$E$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.115005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="85742348"/>
-        <c:axId val="34302054"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="85742348"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34302054"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="34302054"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85742348"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$E$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$47:$D$48</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>v1.0 Double</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>v1.0 Single</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$E$47:$E$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>570.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>323.73999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="65767042"/>
-        <c:axId val="75867459"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="65767042"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="75867459"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="75867459"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="65767042"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$C$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v1.0 Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$46:$E$46</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$47:$E$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>570.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v1.0 Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$46:$E$46</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$48:$E$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>323.73999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$C$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$46:$E$46</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$51:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>698.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>469.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$C$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$46:$E$46</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$52:$E$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>275.579987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>265.040009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="44543141"/>
-        <c:axId val="66493484"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="44543141"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66493484"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66493484"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44543141"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$81:$D$85</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Streaming</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Boundaries</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Macroscopic</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Residuals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$E$81:$E$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>138.848068</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.890377</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.637697</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.71537</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.010902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$91:$D$95</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Streaming</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Boundaries</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Macroscopic</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Residuals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$E$91:$E$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.382435</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.121811</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.298546</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.05999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.859915</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$F$81:$F$85</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Collision</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Streaming</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Boundaries</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Macroscopic</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Residuals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$G$81:$G$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>76.123222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.679489</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.879762</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64.443375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.072239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$C$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$46:$E$46</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$51:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>698.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>469.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$C$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Final Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$46:$E$46</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$52:$E$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>275.579987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>265.040009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$C$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C.C Double</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$46:$E$46</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$55:$E$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>575.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>473.89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$C$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C.C Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$D$46:$E$46</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Delta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$D$56:$E$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>272.209991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>257.029999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="55459463"/>
-        <c:axId val="89268060"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="55459463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="89268060"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="89268060"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="55459463"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$59:$D$62</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$E$59:$E$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>457.81</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>171.481796</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>816.16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>418.299988</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Charts!$F$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Collision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Charts!$C$59:$D$62</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Single</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Double</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Charts!$F$59:$F$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>253.580002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.123222</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>538.145565</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>254.965073</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="83526815"/>
-        <c:axId val="26381817"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="83526815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26381817"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="26381817"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83526815"/>
+        <c:crossAx val="87190509"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14845,15 +15471,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>494280</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:colOff>149400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>442800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:colOff>97920</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14861,12 +15487,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12162240" y="8797320"/>
+        <a:off x="11817360" y="4723920"/>
         <a:ext cx="5663520" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>866880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542160</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11592000" y="1377000"/>
+        <a:ext cx="5761440" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14892,7 +15548,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="8" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14922,7 +15578,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="9" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14952,7 +15608,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="10" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14982,7 +15638,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvPr id="11" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15012,7 +15668,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvPr id="12" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15042,7 +15698,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvPr id="13" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15072,7 +15728,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvPr id="14" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15102,7 +15758,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvPr id="15" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15132,7 +15788,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvPr id="16" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15162,7 +15818,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvPr id="17" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15192,7 +15848,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvPr id="18" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15222,7 +15878,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvPr id="19" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15252,7 +15908,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvPr id="20" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15282,7 +15938,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvPr id="21" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15312,7 +15968,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvPr id="22" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15322,6 +15978,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33120</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416520</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>119520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4033440" y="16126200"/>
+        <a:ext cx="7584480" cy="3988080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -27952,8 +28638,8 @@
   </sheetPr>
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I64" activeCellId="0" sqref="I64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -29210,13 +29896,13 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9234693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.25"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3316326530612"/>
@@ -29747,7 +30433,7 @@
   </sheetPr>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K60" activeCellId="0" sqref="K60"/>
     </sheetView>
   </sheetViews>
@@ -31057,10 +31743,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -31837,8 +32523,77 @@
         <v>3.928059</v>
       </c>
     </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="41"/>
+      <c r="B102" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>77.04</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>81.59</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="41"/>
+      <c r="B104" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>44.25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B28"/>
@@ -31853,6 +32608,8 @@
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
